--- a/Doc/QuanLyKho.xlsx
+++ b/Doc/QuanLyKho.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyPC\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="Base" sheetId="1" r:id="rId1"/>
     <sheet name="N_Kho" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,15 +34,9 @@
     <t>- Nhập kho</t>
   </si>
   <si>
-    <t>- Báo cáo</t>
-  </si>
-  <si>
     <t>- Xuất kho</t>
   </si>
   <si>
-    <t>- Kiểm duyệt</t>
-  </si>
-  <si>
     <t>-Quy trình nhận đơn</t>
   </si>
   <si>
@@ -59,12 +48,18 @@
   <si>
     <t>Quy Trình Nhập Kho :</t>
   </si>
+  <si>
+    <t>- Báo cáo nhập xuất</t>
+  </si>
+  <si>
+    <t>- Kiểm duyệt (Thống kê)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +112,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>68475</xdr:rowOff>
+      <xdr:rowOff>106575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -143,7 +138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2495550" y="276225"/>
+          <a:off x="3200400" y="314325"/>
           <a:ext cx="3371849" cy="3030750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -242,7 +237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,53 +449,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -510,39 +505,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
